--- a/xlsx/嘻哈_intext.xlsx
+++ b/xlsx/嘻哈_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E5%93%88%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>嘻哈音樂</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_嘻哈</t>
+    <t>嘻哈音乐</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_嘻哈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%9E%97%E5%8D%80</t>
   </si>
   <si>
-    <t>哈林區</t>
+    <t>哈林区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E6%96%87%E5%8C%96</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E8%88%8C</t>
   </si>
   <si>
-    <t>饒舌</t>
+    <t>饶舌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DJ</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%9D%BF%E9%9C%B9%E9%9D%82%E8%88%9E</t>
   </si>
   <si>
-    <t>地板霹靂舞</t>
+    <t>地板霹雳舞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%97%E9%B4%89</t>
   </si>
   <si>
-    <t>塗鴉</t>
+    <t>涂鸦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F%E5%8F%A3%E6%8A%80</t>
   </si>
   <si>
-    <t>節奏口技</t>
+    <t>节奏口技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E5%93%88%E6%99%82%E8%A3%9D</t>
   </si>
   <si>
-    <t>嘻哈時裝</t>
+    <t>嘻哈时装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E7%99%BD%E8%AF%9D%E8%8B%B1%E8%AF%AD</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%B1%E7%89%87%E9%A8%8E%E5%B8%AB</t>
   </si>
   <si>
-    <t>唱片騎師</t>
+    <t>唱片骑师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E8%80%80%E5%A4%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>閃耀大師</t>
+    <t>闪耀大师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Afrika_Bambaataa</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>布魯克林</t>
+    <t>布鲁克林</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/DONDI</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%A6%E8%A1%93</t>
   </si>
   <si>
-    <t>中國武術</t>
+    <t>中国武术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Barynya</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>麥可·傑克森</t>
+    <t>麦可·杰克森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Funk_styles</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非洲裔美國人</t>
+    <t>非洲裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E5%A5%8F</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%93%8A%E6%A8%82%E5%99%A8</t>
   </si>
   <si>
-    <t>打擊樂器</t>
+    <t>打击乐器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E5%A0%A1_(%E9%9F%B3%E6%A8%82%E4%BA%BA)</t>
   </si>
   <si>
-    <t>蛋堡 (音樂人)</t>
+    <t>蛋堡 (音乐人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%B2%B3%E5%BA%AD</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%91%E7%AB%A5MJ116</t>
   </si>
   <si>
-    <t>頑童MJ116</t>
+    <t>顽童MJ116</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%90%89</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%9B%8B</t>
   </si>
   <si>
-    <t>國蛋</t>
+    <t>国蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E4%BB%B2%E7%8F%8A</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E8%A9%A9%E8%8A%B8</t>
   </si>
   <si>
-    <t>蔡詩芸</t>
+    <t>蔡诗芸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%8B%B1%E5%AE%8F</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%B9%AF%E8%B1%AA</t>
   </si>
   <si>
-    <t>周湯豪</t>
+    <t>周汤豪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E7%91%8B%E6%9F%8F</t>
   </si>
   <si>
-    <t>潘瑋柏</t>
+    <t>潘玮柏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E4%BB%94</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E7%A4%BE</t>
   </si>
   <si>
-    <t>顏社</t>
+    <t>颜社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BIGBANG</t>
@@ -767,19 +767,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E5%BD%88%E5%B0%91%E5%B9%B4%E5%9C%98</t>
   </si>
   <si>
-    <t>防彈少年團</t>
+    <t>防弹少年团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Jennie_(%E9%9F%93%E5%9C%8B%E6%AD%8C%E6%89%8B)</t>
   </si>
   <si>
-    <t>Jennie (韓國歌手)</t>
+    <t>Jennie (韩国歌手)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lisa_(%E6%B3%B0%E5%9C%8B%E6%AD%8C%E6%89%8B)</t>
   </si>
   <si>
-    <t>Lisa (泰國歌手)</t>
+    <t>Lisa (泰国歌手)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%97%BB%E6%B5%A9</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E7%BE%8E%E6%83%A0</t>
   </si>
   <si>
-    <t>趙美惠</t>
+    <t>赵美惠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Brown_Eyed_Girls</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/F(x)_(%E7%B5%84%E5%90%88)</t>
   </si>
   <si>
-    <t>F(x) (組合)</t>
+    <t>F(x) (组合)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/L.Joe</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E7%B6%93</t>
   </si>
   <si>
-    <t>朴經</t>
+    <t>朴经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ZICO</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%91%A8%E6%86%B2</t>
   </si>
   <si>
-    <t>李周憲</t>
+    <t>李周宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E6%98%8C%E5%9D%87</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%AE%B9%E5%9C%8B</t>
   </si>
   <si>
-    <t>方容國</t>
+    <t>方容国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B5%E5%AE%9C%E6%81%A9</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E4%BD%91</t>
   </si>
   <si>
-    <t>圓佑</t>
+    <t>圆佑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9F%E5%A5%8E</t>
@@ -965,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/Seventeen_(%E7%B5%84%E5%90%88)</t>
   </si>
   <si>
-    <t>Seventeen (組合)</t>
+    <t>Seventeen (组合)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%A6%AE%E6%99%BA</t>
   </si>
   <si>
-    <t>利禮智</t>
+    <t>利礼智</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FIESTAR</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%9F%A5%E5%85%83_(%E9%A5%92%E8%88%8C%E8%80%85)</t>
   </si>
   <si>
-    <t>金知元 (饒舌者)</t>
+    <t>金知元 (饶舌者)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B.I</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E4%BF%8A%E4%BA%A8</t>
   </si>
   <si>
-    <t>龍俊亨</t>
+    <t>龙俊亨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BEAST</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E9%8E%B0%E5%8B%B3</t>
   </si>
   <si>
-    <t>鄭鎰勳</t>
+    <t>郑镒勳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BTOB</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E6%BE%A4%E6%BC%94</t>
   </si>
   <si>
-    <t>玉澤演</t>
+    <t>玉泽演</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2PM</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E7%86%B9%E5%93%B2</t>
   </si>
   <si>
-    <t>鄭熹哲</t>
+    <t>郑熹哲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ZE:A</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%BD%E9%9D%96_(%E9%A5%92%E8%88%8C%E8%80%85)</t>
   </si>
   <si>
-    <t>歐陽靖 (饒舌者)</t>
+    <t>欧阳靖 (饶舌者)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FAMA</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%B8%E6%B4%BE%E5%98%BB%E5%93%88</t>
   </si>
   <si>
-    <t>舊學派嘻哈</t>
+    <t>旧学派嘻哈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_school_hip_hop</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E8%88%88%E9%A5%92%E8%88%8C</t>
   </si>
   <si>
-    <t>即興饒舌</t>
+    <t>即兴饶舌</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gangsta_rap</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B7%E9%98%B1%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>陷阱音樂</t>
+    <t>陷阱音乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Underground_hip_hop</t>
@@ -1487,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>新金屬</t>
+    <t>新金属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Psychedelic_hip_hop</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E8%88%8C%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>饒舌金屬</t>
+    <t>饶舌金属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rap_opera</t>
@@ -1517,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%81%8A%E8%88%9E%E6%9B%B2</t>
   </si>
   <si>
-    <t>神遊舞曲</t>
+    <t>神游舞曲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Urban_Pasifika</t>
